--- a/RQ1-InformationElement/ie_verification-Ellis+xmk 0.1.xlsx
+++ b/RQ1-InformationElement/ie_verification-Ellis+xmk 0.1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e3e88b3a215c6b8a/Postdoc/Hunter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xmk233\Dropbox\York\EMSE2020\ie_verification\收录到replication package的\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{5E7CCB57-2AE4-46B6-8F5A-AD356BBAD38F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D22AE236-9E7C-4D12-929A-618282AFE60D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C1A024D0-E93C-47C8-B91A-BC4AE02A7551}"/>
+    <workbookView xWindow="-25320" yWindow="-8490" windowWidth="25440" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Owner </t>
   </si>
@@ -128,55 +127,64 @@
     <t>Origin/Citation </t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>TFHub</t>
   </si>
   <si>
     <t>PyTorchHub</t>
   </si>
   <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Fine tunable</t>
+  </si>
+  <si>
+    <t>input data type</t>
+  </si>
+  <si>
+    <t>use case</t>
+  </si>
+  <si>
+    <t>ml workflow</t>
+  </si>
+  <si>
+    <t>evaluation</t>
+  </si>
+  <si>
+    <t>Usage Statistics/Popularity</t>
+  </si>
+  <si>
+    <t>Popularity (Stars, Forks)</t>
+  </si>
+  <si>
+    <t>both exclude</t>
+  </si>
+  <si>
+    <t>both include</t>
+  </si>
+  <si>
+    <t>Xiu include</t>
+  </si>
+  <si>
+    <t>Ellis include</t>
+  </si>
+  <si>
     <t>AIHub</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Architecture</t>
-  </si>
-  <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>Fine tunable</t>
-  </si>
-  <si>
-    <t>input data type</t>
-  </si>
-  <si>
-    <t>use case</t>
-  </si>
-  <si>
-    <t>ml workflow</t>
-  </si>
-  <si>
-    <t>evaluation</t>
-  </si>
-  <si>
-    <t>Usage Statistics/Popularity</t>
-  </si>
-  <si>
-    <t>Popularity (Stars, Forks)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,7 +205,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +224,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -229,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -248,6 +262,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,17 +581,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7ECC0F9-F024-4BFA-AEF3-90CC8E10DA33}">
-  <dimension ref="A1:H48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
@@ -581,9 +599,12 @@
     <col min="6" max="6" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
@@ -594,548 +615,913 @@
         <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I10" si="0">COUNT(B3:G3)</f>
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J47" si="1">5-I3</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f>COUNT(B12:G12)</f>
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <f>COUNT(B13:G13)</f>
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f>COUNT(B14:G14)</f>
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f>COUNT(B17:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f>COUNT(B18:G18)</f>
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f>COUNT(B19:G19)</f>
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ref="I21:I27" si="2">COUNT(B21:G21)</f>
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f>COUNT(B29:G29)</f>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f>COUNT(B31:G31)</f>
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f>COUNT(B33:G33)</f>
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <f>COUNT(B34:G34)</f>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <f>COUNT(B36:G36)</f>
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="H45" s="5">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <f>COUNT(B45:G45)</f>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="H46" s="5">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f>COUNT(B46:G46)</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H45" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="H47" s="5">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f>COUNT(B47:G47)</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>31</v>
+      <c r="G48" s="5">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>4</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="I49">
+        <f>SUM(I2:I48)</f>
+        <v>78</v>
+      </c>
+      <c r="J49">
+        <f>SUM(J2:J48)</f>
+        <v>107</v>
+      </c>
+      <c r="K49">
+        <f>SUM(K2:K48)</f>
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <f>SUM(L2:L48)</f>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
